--- a/storage/backend/excels/order_invoice.xlsx
+++ b/storage/backend/excels/order_invoice.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>BDD CO., LIMITED</t>
   </si>
@@ -131,334 +131,325 @@
     <t>Amount</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>SAY TOTAL US DOLLARS       ONLY.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Address</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（发货地址）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Building A, IBC Business Jewelry Building, No. 3008, Buxin Road, Dushu Community, Dongxiao Street, Luohu District, Shenzhen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香港订单：香港地址；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美国大陆台湾订单：深圳地址）</t>
+    </r>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>（为空，不用取值）</t>
+  </si>
+  <si>
+    <t>（订单编号）</t>
+  </si>
+  <si>
+    <t>（收货人）</t>
+  </si>
+  <si>
+    <t>（发票日期，是否为导出日期）</t>
+  </si>
+  <si>
+    <t>（手机号码，带+）</t>
+  </si>
+  <si>
+    <t>（支付方式）</t>
+  </si>
+  <si>
+    <t>（客人地址）</t>
+  </si>
+  <si>
+    <t>（邮编）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Item No.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（款式编号）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Picture</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（图片）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Description</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（商品描述）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Size </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（大小）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Quantity</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pcs</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（商品数量）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Unit Price</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（商品价格）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Amount</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（商品实际成交价）</t>
+    </r>
+  </si>
+  <si>
     <t>KR1912046-G</t>
   </si>
   <si>
     <t>18K&amp;Diamond 
 Diamond:0.005ctx24pcs,0.004ctx56pcs,total0.344ct,
 HSI</t>
-  </si>
-  <si>
-    <t>Height
-1.7 mm
-Width
-2.0 mm</t>
-  </si>
-  <si>
-    <t>3pcs</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>SAY TOTAL US DOLLARS       ONLY.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Address</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（发货地址）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Building A, IBC Business Jewelry Building, No. 3008, Buxin Road, Dushu Community, Dongxiao Street, Luohu District, Shenzhen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>香港订单：香港地址；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>美国大陆台湾订单：深圳地址）</t>
-    </r>
-  </si>
-  <si>
-    <t>Invoice</t>
-  </si>
-  <si>
-    <t>（为空，不用取值）</t>
-  </si>
-  <si>
-    <t>（订单编号）</t>
-  </si>
-  <si>
-    <t>（收货人）</t>
-  </si>
-  <si>
-    <t>（发票日期，是否为导出日期）</t>
-  </si>
-  <si>
-    <t>（手机号码，带+）</t>
-  </si>
-  <si>
-    <t>（支付方式）</t>
-  </si>
-  <si>
-    <t>（客人地址）</t>
-  </si>
-  <si>
-    <t>（邮编）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Item No.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（款式编号）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Picture</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（图片）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Description</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（商品描述）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Size </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（大小）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Quantity</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>pcs</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（商品数量）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Unit Price</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（商品价格）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Amount</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（商品实际成交价）</t>
-    </r>
   </si>
   <si>
     <r>
@@ -581,12 +572,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00&quot;g&quot;"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;US$&quot;#,##0.00;\-&quot;US$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;US$&quot;#,##0.00;\-&quot;US$&quot;#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="0.00&quot;g&quot;"/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -717,34 +708,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,6 +722,110 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -767,60 +835,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,37 +858,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -912,187 +903,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,15 +1143,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1176,11 +1158,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,7 +1177,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1220,6 +1208,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1235,17 +1232,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1257,10 +1248,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1269,141 +1260,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1495,11 +1486,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="2" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1507,11 +1498,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1524,14 +1515,26 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1545,7 +1548,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="18" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1617,49 +1620,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1238249</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1181100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="图片 50" descr="1.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1734185" y="2470785"/>
-          <a:ext cx="1189990" cy="1152525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1991,19 +1951,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10.5083333333333" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
     <col min="8" max="8" width="20.625" customWidth="1"/>
@@ -2046,13 +2006,13 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="9" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="9"/>
@@ -2060,13 +2020,13 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" ht="13.6" customHeight="1" spans="1:8">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="9" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="9"/>
@@ -2074,32 +2034,32 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" ht="13.95" customHeight="1" spans="1:8">
-      <c r="A6" t="s">
+      <c r="A6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="14" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" ht="23.8" customHeight="1" spans="1:8">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" ht="41.45" customHeight="1" spans="1:8">
       <c r="A8" s="21" t="s">
@@ -2123,85 +2083,62 @@
       <c r="G8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="47" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" ht="94.6" customHeight="1" spans="1:8">
-      <c r="A9" s="24">
-        <v>1</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>19</v>
-      </c>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="25"/>
-      <c r="D9" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>22</v>
-      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="29"/>
       <c r="H9" s="30"/>
     </row>
-    <row r="10" ht="94.6" customHeight="1" spans="1:8">
-      <c r="A10" s="24">
-        <v>2</v>
+    <row r="10" ht="12.75" customHeight="1" spans="1:8">
+      <c r="A10" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="48"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A11" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="44"/>
-    </row>
-    <row r="12" ht="28.55" customHeight="1" spans="1:8">
-      <c r="A12" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+    <row r="11" ht="28.55" customHeight="1" spans="1:8">
+      <c r="A11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A11:H11"/>
   </mergeCells>
   <pageMargins left="0.393700787401575" right="0.393700787401575" top="0.748031496062992" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2241,7 +2178,7 @@
     </row>
     <row r="2" ht="41.45" customHeight="1" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2253,7 +2190,7 @@
     </row>
     <row r="3" ht="23.8" customHeight="1" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2268,7 +2205,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2276,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -2286,7 +2223,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -2294,7 +2231,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -2304,7 +2241,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -2312,7 +2249,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -2322,7 +2259,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2330,7 +2267,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -2340,25 +2277,25 @@
         <v>11</v>
       </c>
       <c r="B8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="G8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="H8" s="23" t="s">
         <v>37</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" ht="94.6" customHeight="1" spans="1:8">
@@ -2366,14 +2303,14 @@
         <v>1</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="26" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" s="28">
         <v>3</v>
@@ -2395,23 +2332,23 @@
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:8">
       <c r="A11" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="35"/>
       <c r="D11" s="34"/>
       <c r="E11" s="24"/>
       <c r="F11" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" ht="28.55" customHeight="1" spans="1:8">
       <c r="A12" s="38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>

--- a/storage/backend/excels/order_invoice.xlsx
+++ b/storage/backend/excels/order_invoice.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>BDD CO., LIMITED</t>
   </si>
@@ -131,6 +131,23 @@
     <t>Amount</t>
   </si>
   <si>
+    <t>KR1912046-G</t>
+  </si>
+  <si>
+    <t>18K&amp;Diamond 
+Diamond:0.005ctx24pcs,0.004ctx56pcs,total0.344ct,
+HSI</t>
+  </si>
+  <si>
+    <t>Height
+1.7 mm
+Width
+2.0 mm</t>
+  </si>
+  <si>
+    <t>3pcs</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
@@ -442,14 +459,6 @@
       </rPr>
       <t>（商品实际成交价）</t>
     </r>
-  </si>
-  <si>
-    <t>KR1912046-G</t>
-  </si>
-  <si>
-    <t>18K&amp;Diamond 
-Diamond:0.005ctx24pcs,0.004ctx56pcs,total0.344ct,
-HSI</t>
   </si>
   <si>
     <r>
@@ -572,12 +581,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="&quot;US$&quot;#,##0.00;\-&quot;US$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00&quot;g&quot;"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -708,7 +717,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,6 +790,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -730,56 +851,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -788,72 +859,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -903,19 +912,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,7 +1002,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,19 +1062,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,25 +1080,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,97 +1092,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,36 +1167,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1208,11 +1191,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1234,6 +1223,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1248,10 +1257,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1260,16 +1269,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1279,118 +1288,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1954,7 +1963,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2088,18 +2097,28 @@
       </c>
     </row>
     <row r="9" ht="94.6" customHeight="1" spans="1:8">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="24">
+        <v>1</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="28"/>
+      <c r="D9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="G9" s="29"/>
       <c r="H9" s="30"/>
     </row>
     <row r="10" ht="12.75" customHeight="1" spans="1:8">
       <c r="A10" s="24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="35"/>
@@ -2111,7 +2130,7 @@
     </row>
     <row r="11" ht="28.55" customHeight="1" spans="1:8">
       <c r="A11" s="38" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="38"/>
@@ -2178,7 +2197,7 @@
     </row>
     <row r="2" ht="41.45" customHeight="1" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2190,7 +2209,7 @@
     </row>
     <row r="3" ht="23.8" customHeight="1" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2205,7 +2224,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2213,7 +2232,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -2223,7 +2242,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -2231,7 +2250,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -2241,7 +2260,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -2249,7 +2268,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -2259,7 +2278,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2267,7 +2286,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -2277,25 +2296,25 @@
         <v>11</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="94.6" customHeight="1" spans="1:8">
@@ -2303,14 +2322,14 @@
         <v>1</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="26" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F9" s="28">
         <v>3</v>
@@ -2332,23 +2351,23 @@
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:8">
       <c r="A11" s="34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="35"/>
       <c r="D11" s="34"/>
       <c r="E11" s="24"/>
       <c r="F11" s="36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" ht="28.55" customHeight="1" spans="1:8">
       <c r="A12" s="38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>

--- a/storage/backend/excels/order_invoice.xlsx
+++ b/storage/backend/excels/order_invoice.xlsx
@@ -158,14 +158,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00&quot;g&quot;"/>
-    <numFmt numFmtId="177" formatCode="&quot;US$&quot;#,##0.00;\-&quot;US$&quot;#,##0.00"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="&quot;US$&quot;#,##0.00;\-&quot;US$&quot;#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="0.00&quot;g&quot;"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +208,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -259,29 +267,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,92 +396,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -422,187 +430,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,6 +671,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -677,11 +724,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,8 +742,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,51 +767,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -767,10 +775,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -779,141 +787,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -930,31 +938,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -965,14 +979,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -980,28 +990,32 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1073,6 +1087,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>36830</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>33655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1107440</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1186815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="1.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2050415" y="2618105"/>
+          <a:ext cx="1070610" cy="1153160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1363,19 +1420,18 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="9.725" customWidth="1"/>
+    <col min="2" max="3" width="16.7" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="15.7" customWidth="1"/>
+    <col min="6" max="6" width="10.9666666666667" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="14.4583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.75" customHeight="1" spans="1:8">
@@ -1452,93 +1508,93 @@
       <c r="E6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
-    <row r="7" ht="23.8" customHeight="1" spans="1:8">
-      <c r="A7" s="11" t="s">
+    <row r="7" ht="35" customHeight="1" spans="1:8">
+      <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" ht="41.45" customHeight="1" spans="1:8">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" ht="94.6" customHeight="1" spans="1:8">
-      <c r="A9" s="17">
+      <c r="A9" s="19">
         <v>1</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1" spans="1:8">
-      <c r="A10" s="17" t="s">
+    <row r="10" ht="26" customHeight="1" spans="1:8">
+      <c r="A10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
     </row>
-    <row r="11" ht="28.55" customHeight="1" spans="1:8">
-      <c r="A11" s="28" t="s">
+    <row r="11" ht="26" customHeight="1" spans="1:8">
+      <c r="A11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1551,12 +1607,13 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
     <mergeCell ref="A11:H11"/>
   </mergeCells>
   <pageMargins left="0.393700787401575" right="0.393700787401575" top="0.748031496062992" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/storage/backend/excels/order_invoice.xlsx
+++ b/storage/backend/excels/order_invoice.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>BDD CO., LIMITED</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Size</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
   </si>
   <si>
     <r>
@@ -124,9 +127,6 @@
     </r>
   </si>
   <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -144,10 +144,76 @@
 2.0 mm</t>
   </si>
   <si>
-    <t>3pcs</t>
-  </si>
-  <si>
-    <t>Total</t>
+    <t>241.00 USD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Coupon discount</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Shopping card</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Total</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <t>482.00 USD</t>
   </si>
   <si>
     <t>SAY TOTAL US DOLLARS       ONLY.</t>
@@ -157,15 +223,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="&quot;US$&quot;#,##0.00;\-&quot;US$&quot;#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="0.00&quot;g&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00&quot;g&quot;"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,32 +307,109 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,8 +423,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,9 +441,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,101 +454,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -415,7 +475,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,25 +490,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,162 +610,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -649,24 +715,35 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -685,6 +762,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -696,30 +784,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,26 +811,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -775,10 +819,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,141 +831,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,13 +985,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -956,19 +1000,19 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -986,41 +1030,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1119,7 +1170,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2050415" y="2618105"/>
+          <a:off x="2002155" y="2582545"/>
+          <a:ext cx="1070610" cy="1153160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>36830</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>33655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1107440</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1186815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="1.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2002155" y="2582545"/>
           <a:ext cx="1070610" cy="1153160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1417,20 +1506,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.725" customWidth="1"/>
+    <col min="1" max="1" width="9.09166666666667" customWidth="1"/>
     <col min="2" max="3" width="16.7" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="15.7" customWidth="1"/>
-    <col min="6" max="6" width="10.9666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="15.2" customWidth="1"/>
+    <col min="6" max="6" width="16.075" customWidth="1"/>
+    <col min="7" max="7" width="14.45" customWidth="1"/>
     <col min="8" max="8" width="14.4583333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1458,7 +1547,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="23.8" customHeight="1" spans="1:8">
+    <row r="3" ht="21" customHeight="1" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1569,35 +1658,70 @@
       <c r="F9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
+      <c r="G9" s="24">
+        <v>1</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" ht="26" customHeight="1" spans="1:8">
-      <c r="A10" s="19" t="s">
+    <row r="10" ht="23" customHeight="1" spans="1:9">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
       <c r="G10" s="28"/>
       <c r="H10" s="29"/>
+      <c r="I10" s="33"/>
     </row>
-    <row r="11" ht="26" customHeight="1" spans="1:8">
-      <c r="A11" s="30" t="s">
+    <row r="11" ht="23" customHeight="1" spans="1:9">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="33"/>
+    </row>
+    <row r="12" ht="23" customHeight="1" spans="1:9">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="30">
+        <v>2</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="33"/>
+    </row>
+    <row r="13" ht="26" customHeight="1" spans="1:8">
+      <c r="A13" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
@@ -1609,7 +1733,10 @@
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:H13"/>
   </mergeCells>
   <pageMargins left="0.393700787401575" right="0.393700787401575" top="0.748031496062992" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/storage/backend/excels/order_invoice.xlsx
+++ b/storage/backend/excels/order_invoice.xlsx
@@ -224,10 +224,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00&quot;g&quot;"/>
   </numFmts>
   <fonts count="34">
@@ -319,23 +319,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,9 +357,69 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,115 +431,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -496,12 +496,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -514,7 +634,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,156 +677,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,6 +715,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -725,24 +740,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,11 +761,38 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,30 +811,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -819,10 +819,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -831,16 +831,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,118 +850,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,87 +1138,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>36830</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>33655</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1107440</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1186815</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="1.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2002155" y="2582545"/>
-          <a:ext cx="1070610" cy="1153160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>36830</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>33655</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1107440</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1186815</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="1.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2002155" y="2582545"/>
-          <a:ext cx="1070610" cy="1153160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1509,7 +1428,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="F7" sqref="F7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1741,6 +1660,5 @@
   <pageMargins left="0.393700787401575" right="0.393700787401575" top="0.748031496062992" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/storage/backend/excels/order_invoice.xlsx
+++ b/storage/backend/excels/order_invoice.xlsx
@@ -225,9 +225,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00&quot;g&quot;"/>
   </numFmts>
   <fonts count="34">
@@ -319,79 +319,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -400,16 +327,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,6 +350,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -431,32 +440,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,6 +496,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -508,13 +568,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,61 +646,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,91 +658,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,6 +714,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -744,6 +753,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -762,19 +786,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,24 +803,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,10 +819,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -831,141 +831,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1057,9 +1057,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1428,7 +1425,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:H7"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1594,8 +1591,8 @@
         <v>23</v>
       </c>
       <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="33"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" ht="23" customHeight="1" spans="1:9">
       <c r="A11" s="25"/>
@@ -1607,8 +1604,8 @@
         <v>24</v>
       </c>
       <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="33"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" ht="23" customHeight="1" spans="1:9">
       <c r="A12" s="25"/>
@@ -1619,25 +1616,25 @@
       <c r="F12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="29">
         <v>2</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="33"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" ht="26" customHeight="1" spans="1:8">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="15">
